--- a/biology/Zoologie/Cyrba_algerina/Cyrba_algerina.xlsx
+++ b/biology/Zoologie/Cyrba_algerina/Cyrba_algerina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrba algerina est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrba algerina est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Nord, en Europe du Sud, au Moyen-Orient et en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Nord, en Europe du Sud, au Moyen-Orient et en Asie centrale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,55 à 4,9 mm et les femelles de 4,2 à 6,7 mm[2].
-C'est une araignée arachnophage[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,55 à 4,9 mm et les femelles de 4,2 à 6,7 mm.
+C'est une araignée arachnophage.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lucas, 1846 : Histoire naturelle des animaux articulés. Exploration scientifique de l'Algérie pendant les années 1840, 1841, 1842 publiée par ordre du Gouvernement et avec le concours d'une commission académique. Paris, Sciences physiques, Zoologie, vol. 1, p. 89-271.</t>
         </is>
